--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project\WebDanforJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D8176-B6ED-4BA8-B67A-61FDFC402C62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B5657-3088-41F7-B0C0-FC2836ED7DE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB531D06-14EC-499C-8F80-14F82EDC041B}"/>
+    <workbookView xWindow="2460" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{EB531D06-14EC-499C-8F80-14F82EDC041B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,34 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TableColumns()</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>setSaveData()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -243,6 +215,10 @@
   </si>
   <si>
     <t>calculation-print</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getTableColumns()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -800,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF3B5F1-078D-4A39-96C7-BB50E2D845B9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -824,31 +800,31 @@
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -867,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -903,7 +879,7 @@
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -920,7 +896,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -937,12 +913,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -954,12 +930,12 @@
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -971,12 +947,12 @@
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -988,12 +964,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1005,12 +981,12 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1022,12 +998,12 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1039,12 +1015,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
